--- a/db/status/save/FIBONACCI_ENGENHARIA_E_SERVICOS_TECNICOS_LTDA_eventos.xlsx
+++ b/db/status/save/FIBONACCI_ENGENHARIA_E_SERVICOS_TECNICOS_LTDA_eventos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="59">
   <si>
     <t>data</t>
   </si>
@@ -40,7 +40,121 @@
     <t>SUCESSO</t>
   </si>
   <si>
-    <t>10/2018</t>
+    <t>Todas</t>
+  </si>
+  <si>
+    <t>13/2024</t>
+  </si>
+  <si>
+    <t>12/2024</t>
+  </si>
+  <si>
+    <t>11/2024</t>
+  </si>
+  <si>
+    <t>10/2024</t>
+  </si>
+  <si>
+    <t>09/2024</t>
+  </si>
+  <si>
+    <t>08/2024</t>
+  </si>
+  <si>
+    <t>07/2024</t>
+  </si>
+  <si>
+    <t>06/2024</t>
+  </si>
+  <si>
+    <t>05/2024</t>
+  </si>
+  <si>
+    <t>04/2024</t>
+  </si>
+  <si>
+    <t>03/2024</t>
+  </si>
+  <si>
+    <t>02/2024</t>
+  </si>
+  <si>
+    <t>01/2024</t>
+  </si>
+  <si>
+    <t>13/2023</t>
+  </si>
+  <si>
+    <t>12/2023</t>
+  </si>
+  <si>
+    <t>11/2023</t>
+  </si>
+  <si>
+    <t>10/2023</t>
+  </si>
+  <si>
+    <t>09/2023</t>
+  </si>
+  <si>
+    <t>08/2023</t>
+  </si>
+  <si>
+    <t>07/2023</t>
+  </si>
+  <si>
+    <t>06/2023</t>
+  </si>
+  <si>
+    <t>05/2023</t>
+  </si>
+  <si>
+    <t>04/2023</t>
+  </si>
+  <si>
+    <t>03/2023</t>
+  </si>
+  <si>
+    <t>02/2023</t>
+  </si>
+  <si>
+    <t>01/2023</t>
+  </si>
+  <si>
+    <t>13/2022</t>
+  </si>
+  <si>
+    <t>12/2022</t>
+  </si>
+  <si>
+    <t>11/2022</t>
+  </si>
+  <si>
+    <t>10/2022</t>
+  </si>
+  <si>
+    <t>09/2022</t>
+  </si>
+  <si>
+    <t>08/2022</t>
+  </si>
+  <si>
+    <t>07/2022</t>
+  </si>
+  <si>
+    <t>06/2022</t>
+  </si>
+  <si>
+    <t>05/2022</t>
+  </si>
+  <si>
+    <t>04/2022</t>
+  </si>
+  <si>
+    <t>03/2022</t>
+  </si>
+  <si>
+    <t>02/2022</t>
   </si>
   <si>
     <t>01/2022</t>
@@ -55,16 +169,28 @@
     <t>11/2021</t>
   </si>
   <si>
-    <t>02/2022</t>
+    <t>10/2021</t>
+  </si>
+  <si>
+    <t>Processamento concluído com 4 de 43 competências processadas com sucesso</t>
   </si>
   <si>
     <t>Nenhum documento encontrado para esta competência ou não foram encontrados pagamentos nos últimos 5 anos</t>
   </si>
   <si>
+    <t>Erro de valor maior que disponível no documento 07.16.24049.1693855-6</t>
+  </si>
+  <si>
     <t>Todos os 1 documentos válidos foram processados com sucesso</t>
   </si>
   <si>
+    <t>Nenhum documento com códigos válidos para a competência</t>
+  </si>
+  <si>
     <t>Erro de valor maior que disponível no documento 07.16.22019.0791909-1</t>
+  </si>
+  <si>
+    <t>Erro de valor maior que disponível no documento 07.16.21309.8866139-9</t>
   </si>
 </sst>
 </file>
@@ -426,7 +552,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,7 +577,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>45721.06683888534</v>
+        <v>45722.7153515743</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -463,46 +589,46 @@
         <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>45721.05895163195</v>
+        <v>45722.71534947916</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>45721.05820719907</v>
+        <v>45722.71522636574</v>
       </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>45721.05745212963</v>
+        <v>45722.71509460648</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -514,12 +640,12 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>45721.05675265046</v>
+        <v>45722.71483039352</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -531,12 +657,12 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>45721.05649731481</v>
+        <v>45722.71469664352</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -545,66 +671,66 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>45721.02857688657</v>
+        <v>45722.71456931713</v>
       </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>45721.02782480324</v>
+        <v>45722.71444295139</v>
       </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>45721.0270465625</v>
+        <v>45722.71431424769</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>45721.02621782407</v>
+        <v>45722.71418043981</v>
       </c>
       <c r="B11" t="s">
         <v>5</v>
@@ -613,15 +739,15 @@
         <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>45721.02547523148</v>
+        <v>45722.71404859954</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -630,15 +756,15 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>45721.02521461806</v>
+        <v>45722.71391994213</v>
       </c>
       <c r="B13" t="s">
         <v>5</v>
@@ -647,10 +773,554 @@
         <v>6</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>14</v>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>45722.71379454861</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="2">
+        <v>45722.71367392361</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="2">
+        <v>45722.7135490625</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>45722.71342429398</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="2">
+        <v>45722.71329940972</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="2">
+        <v>45722.7131725463</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="2">
+        <v>45722.71247322916</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2">
+        <v>45722.71234805555</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="2">
+        <v>45722.71222168981</v>
+      </c>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2">
+        <v>45722.71209513889</v>
+      </c>
+      <c r="B23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="2">
+        <v>45722.7119696875</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>45722.71184383102</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>45722.7117093287</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>45722.71095138889</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="2">
+        <v>45722.71082607639</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2">
+        <v>45722.71070173611</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="2">
+        <v>45722.71044252314</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="2">
+        <v>45722.71032283565</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>45722.71020295139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>5</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>45722.71007776621</v>
+      </c>
+      <c r="B33" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="2">
+        <v>45722.70995868056</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="2">
+        <v>45722.70983309028</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="2">
+        <v>45722.70970538195</v>
+      </c>
+      <c r="B36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="2">
+        <v>45722.70957811343</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="2">
+        <v>45722.70931277778</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="2">
+        <v>45722.70903601852</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="2">
+        <v>45722.70824295139</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="2">
+        <v>45722.70791163194</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="2">
+        <v>45722.70714486111</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="2">
+        <v>45722.70635315972</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2">
+        <v>45722.70557748843</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="2">
+        <v>45722.70531304398</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
